--- a/Data/Ukes meny.xlsx
+++ b/Data/Ukes meny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/lars_helge_verde_dnv_com/Documents/Lars Verde Docs/Privat/Hjemme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/lars_helge_verde_dnv_com/Documents/Python Lars/Streamlit/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="11_F25DC773A252ABDACC10480EB15D6C0A5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AB0947-C4E0-0947-828E-D9F333A88EC5}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="11_F25DC773A252ABDACC10480EB15D6C0A5ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB3FF93-1748-4EB5-8FF2-67A174C31DB2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AD4BF6C6-5565-4488-BACC-B3D8356F9718}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AD4BF6C6-5565-4488-BACC-B3D8356F9718}"/>
   </bookViews>
   <sheets>
     <sheet name="Meny" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="90">
   <si>
     <t>Taco</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>Kategori protein</t>
+  </si>
+  <si>
+    <t>Søtpotetsuppe</t>
+  </si>
+  <si>
+    <t>Søtpotet</t>
+  </si>
+  <si>
+    <t>Curry paste</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>Hvitløksbrød</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -490,10 +505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,18 +1033,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.80859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.04296875" customWidth="1"/>
-    <col min="4" max="4" width="18.29296875" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>Pasta</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>78</v>
       </c>
@@ -1074,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>79</v>
       </c>
@@ -1090,7 +1104,7 @@
         <v>Ris</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>80</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>Ris</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>81</v>
       </c>
@@ -1122,21 +1136,23 @@
         <v>Pasta</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="C7" s="10" t="str">
         <f>_xlfn.XLOOKUP(B7,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
-        <v/>
+        <v>Søtpotet</v>
       </c>
       <c r="D7" s="10" t="str">
         <f>_xlfn.XLOOKUP(B7,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>Søtpotet</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
@@ -1150,62 +1166,62 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="str">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="str">
         <f>_xlfn.XLOOKUP(B9,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
         <v/>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="10" t="str">
         <f>_xlfn.XLOOKUP(B9,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="str">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="str">
         <f>_xlfn.XLOOKUP(B10,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
         <v/>
       </c>
-      <c r="D10" s="13" t="str">
+      <c r="D10" s="10" t="str">
         <f>_xlfn.XLOOKUP(B10,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="str">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="str">
         <f>_xlfn.XLOOKUP(B11,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
         <v/>
       </c>
-      <c r="D11" s="13" t="str">
+      <c r="D11" s="10" t="str">
         <f>_xlfn.XLOOKUP(B11,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="str">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="str">
         <f>_xlfn.XLOOKUP(B12,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
         <v/>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="10" t="str">
         <f>_xlfn.XLOOKUP(B12,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="str">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="str">
         <f>_xlfn.XLOOKUP(B13,'Alle retter'!$A$2:$A$100,'Alle retter'!$B$2:$B$100)</f>
         <v/>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="10" t="str">
         <f>_xlfn.XLOOKUP(B13,'Alle retter'!$A$2:$A$100,'Alle retter'!$C$2:$C$100)</f>
         <v/>
       </c>
@@ -1238,12 +1254,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1254,9 +1270,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A25">_xlfn.UNIQUE(_xlfn._xlws.FILTER('Alle oppskrifter'!B2:B1000, ISNUMBER(MATCH('Alle oppskrifter'!A2:A1000, Meny!B2:B8, 0))))</f>
+        <f t="array" ref="A2:A29">_xlfn.UNIQUE(_xlfn._xlws.FILTER('Alle oppskrifter'!B2:B1000, ISNUMBER(MATCH('Alle oppskrifter'!A2:A1000, Meny!B2:B8, 0))))</f>
         <v>Linser</v>
       </c>
       <c r="B2" cm="1">
@@ -1272,7 +1288,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>Hakka tomat</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Løk</v>
       </c>
@@ -1299,14 +1315,14 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
         <f>IF(_xlfn.XLOOKUP(A4, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A4, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
         <v>stk</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Gulrot</v>
       </c>
@@ -1316,14 +1332,14 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="str">
         <f>IF(_xlfn.XLOOKUP(A5, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A5, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
         <v>stk</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Buljong</v>
       </c>
@@ -1340,7 +1356,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Ketchup</v>
       </c>
@@ -1357,9 +1373,9 @@
         <v>ss</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <v>Kjøttdeig</v>
+        <v>Søtpotet</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A8) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1367,16 +1383,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="str">
         <f>IF(_xlfn.XLOOKUP(A8, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A8, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
         <v>stk</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <v>Hvitløk</v>
+        <v>Kokosmelk</v>
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A9) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1384,16 +1400,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
         <f>IF(_xlfn.XLOOKUP(A9, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A9, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
         <v>stk</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <v>Salat</v>
+        <v>Curry paste</v>
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A10) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1401,16 +1417,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="str">
         <f>IF(_xlfn.XLOOKUP(A10, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A10, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>ts</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <v>Tomat</v>
+        <v>Hvitløksbrød</v>
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A11) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1425,9 +1441,9 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <v>Rødløk</v>
+        <v>Ingefær</v>
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A12) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1442,9 +1458,9 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <v>Pasta</v>
+        <v>Kjøttdeig</v>
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A13) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1452,16 +1468,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C13" t="str">
         <f>IF(_xlfn.XLOOKUP(A13, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A13, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>g</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <v>Kylling</v>
+        <v>Hvitløk</v>
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A14) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1469,16 +1485,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="C14" t="str">
         <f>IF(_xlfn.XLOOKUP(A14, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A14, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>g</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>Ris</v>
+        <v>Salat</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A15) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1486,16 +1502,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="C15" t="str">
         <f>IF(_xlfn.XLOOKUP(A15, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A15, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <v>Sweet chili</v>
+        <v>Tomat</v>
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A16) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1503,16 +1519,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="str">
         <f>IF(_xlfn.XLOOKUP(A16, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A16, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <v>Soyasaus</v>
+        <v>Rødløk</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A17) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1520,16 +1536,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
         <f>IF(_xlfn.XLOOKUP(A17, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A17, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <v>Brokkoli</v>
+        <v>Pasta</v>
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A18) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1537,16 +1553,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C18" t="str">
         <f>IF(_xlfn.XLOOKUP(A18, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A18, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <v>Wok mix</v>
+        <v>Kylling</v>
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A19) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1554,16 +1570,16 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="C19" t="str">
         <f>IF(_xlfn.XLOOKUP(A19, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent")=0,"",_xlfn.XLOOKUP(A19, 'Alle oppskrifter'!B:B, 'Alle oppskrifter'!D:D, "ukjent"))</f>
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <v>Mango</v>
+        <v>Ris</v>
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A20) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1571,12 +1587,12 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <v>Fisk</v>
+        <v>Sweet chili</v>
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A21) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1584,12 +1600,12 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <v>Paprika</v>
+        <v>Soyasaus</v>
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A22) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1597,12 +1613,12 @@
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <v>Koriander</v>
+        <v>Brokkoli</v>
       </c>
       <c r="B23" cm="1">
         <f t="array" ref="B23">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A23) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1613,9 +1629,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <v>Lime</v>
+        <v>Wok mix</v>
       </c>
       <c r="B24" cm="1">
         <f t="array" ref="B24">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A24) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1626,9 +1642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <v>Kokosmelk</v>
+        <v>Mango</v>
       </c>
       <c r="B25" cm="1">
         <f t="array" ref="B25">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A25) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
@@ -1639,47 +1655,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="str" cm="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>Fisk</v>
+      </c>
+      <c r="B26" cm="1">
         <f t="array" ref="B26">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A26) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A26) *
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="str" cm="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>Paprika</v>
+      </c>
+      <c r="B27" cm="1">
         <f t="array" ref="B27">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A27) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A27) *
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="str" cm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>Koriander</v>
+      </c>
+      <c r="B28" cm="1">
         <f t="array" ref="B28">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A28) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A28) *
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="str" cm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>Lime</v>
+      </c>
+      <c r="B29" cm="1">
         <f t="array" ref="B29">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A29) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A29) *
    ('Alle oppskrifter'!$C$2:$C$1000) *
    COUNTIF(Meny!$B$2:$B$8, 'Alle oppskrifter'!$A$2:$A$1000)
 ))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A30) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A30) *
@@ -1689,7 +1717,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A31) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A31) *
@@ -1699,7 +1727,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="str" cm="1">
         <f t="array" ref="B32">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A32) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A32) *
@@ -1709,7 +1737,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="str" cm="1">
         <f t="array" ref="B33">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A33) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A33) *
@@ -1719,7 +1747,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="str" cm="1">
         <f t="array" ref="B34">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A34) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A34) *
@@ -1729,7 +1757,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="str" cm="1">
         <f t="array" ref="B35">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A35) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A35) *
@@ -1739,7 +1767,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="str" cm="1">
         <f t="array" ref="B36">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A36) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A36) *
@@ -1749,7 +1777,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A37) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A37) *
@@ -1759,7 +1787,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="str" cm="1">
         <f t="array" ref="B38">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A38) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A38) *
@@ -1769,7 +1797,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="str" cm="1">
         <f t="array" ref="B39">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A39) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A39) *
@@ -1779,7 +1807,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="str" cm="1">
         <f t="array" ref="B40">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A40) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A40) *
@@ -1789,7 +1817,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="str" cm="1">
         <f t="array" ref="B41">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A41) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A41) *
@@ -1799,7 +1827,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="str" cm="1">
         <f t="array" ref="B42">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A42) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A42) *
@@ -1809,7 +1837,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="str" cm="1">
         <f t="array" ref="B43">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A43) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A43) *
@@ -1819,7 +1847,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="str" cm="1">
         <f t="array" ref="B44">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A44) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A44) *
@@ -1829,7 +1857,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="str" cm="1">
         <f t="array" ref="B45">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A45) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A45) *
@@ -1839,7 +1867,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="str" cm="1">
         <f t="array" ref="B46">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A46) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A46) *
@@ -1849,7 +1877,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A47) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A47) *
@@ -1859,7 +1887,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="str" cm="1">
         <f t="array" ref="B48">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A48) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A48) *
@@ -1869,7 +1897,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="str" cm="1">
         <f t="array" ref="B49">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A49) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A49) *
@@ -1879,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="str" cm="1">
         <f t="array" ref="B50">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A50) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A50) *
@@ -1889,7 +1917,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="str" cm="1">
         <f t="array" ref="B51">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A51) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A51) *
@@ -1899,7 +1927,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="str" cm="1">
         <f t="array" ref="B52">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A52) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A52) *
@@ -1909,7 +1937,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="str" cm="1">
         <f t="array" ref="B53">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A53) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A53) *
@@ -1919,7 +1947,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="str" cm="1">
         <f t="array" ref="B54">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A54) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A54) *
@@ -1929,7 +1957,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="str" cm="1">
         <f t="array" ref="B55">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A55) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A55) *
@@ -1939,7 +1967,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="str" cm="1">
         <f t="array" ref="B56">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A56) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A56) *
@@ -1949,7 +1977,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="str" cm="1">
         <f t="array" ref="B57">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A57) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A57) *
@@ -1959,7 +1987,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="str" cm="1">
         <f t="array" ref="B58">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A58) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A58) *
@@ -1969,7 +1997,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="str" cm="1">
         <f t="array" ref="B59">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A59) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A59) *
@@ -1979,7 +2007,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="str" cm="1">
         <f t="array" ref="B60">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A60) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A60) *
@@ -1989,7 +2017,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="str" cm="1">
         <f t="array" ref="B61">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A61) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A61) *
@@ -1999,7 +2027,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="str" cm="1">
         <f t="array" ref="B62">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A62) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A62) *
@@ -2009,7 +2037,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="str" cm="1">
         <f t="array" ref="B63">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A63) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(
    ('Alle oppskrifter'!$B$2:$B$1000 = A63) *
@@ -2019,163 +2047,163 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="str" cm="1">
         <f t="array" ref="B64">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A64) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A64) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="str" cm="1">
         <f t="array" ref="B65">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A65) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A65) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="str" cm="1">
         <f t="array" ref="B66">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A66) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A66) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="str" cm="1">
         <f t="array" ref="B67">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A67) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A67) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="str" cm="1">
         <f t="array" ref="B68">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A68) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A68) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="str" cm="1">
         <f t="array" ref="B69">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A69) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A69) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="str" cm="1">
         <f t="array" ref="B70">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A70) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A70) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="str" cm="1">
         <f t="array" ref="B71">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A71) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A71) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="str" cm="1">
         <f t="array" ref="B72">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A72) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A72) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="str" cm="1">
         <f t="array" ref="B73">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A73) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A73) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A74) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A74) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="str" cm="1">
         <f t="array" ref="B75">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A75) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A75) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="str" cm="1">
         <f t="array" ref="B76">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A76) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A76) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="str" cm="1">
         <f t="array" ref="B77">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A77) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A77) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="str" cm="1">
         <f t="array" ref="B78">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A78) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A78) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="str" cm="1">
         <f t="array" ref="B79">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A79) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A79) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="str" cm="1">
         <f t="array" ref="B80">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A80) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A80) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="str" cm="1">
         <f t="array" ref="B81">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A81) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A81) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="str" cm="1">
         <f t="array" ref="B82">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A82) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A82) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="str" cm="1">
         <f t="array" ref="B83">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A83) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A83) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="str" cm="1">
         <f t="array" ref="B84">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A84) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A84) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="str" cm="1">
         <f t="array" ref="B85">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A85) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A85) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="str" cm="1">
         <f t="array" ref="B86">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A86) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A86) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="str" cm="1">
         <f t="array" ref="B87">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A87) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A87) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="str" cm="1">
         <f t="array" ref="B88">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A88) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A88) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="str" cm="1">
         <f t="array" ref="B89">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A89) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A89) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="str" cm="1">
         <f t="array" ref="B90">IF(SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A90) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000)=0,"",SUMPRODUCT(('Alle oppskrifter'!$B$2:$B$1000 = A90) * ISNUMBER(MATCH('Alle oppskrifter'!$A$2:$A$1000, Meny!$B$2:$B$8, 0)) * 'Alle oppskrifter'!$C$2:$C$1000))</f>
         <v/>
@@ -2188,21 +2216,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91020447-E2BB-43BC-9A90-F9B0775BB258}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.046875" customWidth="1"/>
-    <col min="2" max="2" width="16.41015625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.56640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2262,7 +2290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2282,7 +2310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2302,7 +2330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2342,7 +2370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -2362,7 +2390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -2402,7 +2430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -2422,7 +2450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2442,7 +2470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -2460,6 +2488,146 @@
       </c>
       <c r="F13" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2479,15 +2647,15 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.37109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.41015625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2507,7 +2675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2815,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2667,7 +2835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2767,7 +2935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +2955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -2807,7 +2975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -2847,7 +3015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +3035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +3055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -2907,7 +3075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +3095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2947,7 +3115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -2967,7 +3135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2987,7 +3155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +3175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -3027,7 +3195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3047,7 +3215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -3067,7 +3235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -3087,7 +3255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
@@ -3107,7 +3275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3127,7 +3295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -3147,7 +3315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -3167,7 +3335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -3187,7 +3355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
@@ -3207,7 +3375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3247,7 +3415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -3267,7 +3435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -3307,7 +3475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -3347,7 +3515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -3367,7 +3535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -3387,7 +3555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
@@ -3407,7 +3575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -3427,7 +3595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
@@ -3447,7 +3615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -3467,7 +3635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -3487,7 +3655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
@@ -3507,7 +3675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
@@ -3527,7 +3695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -3547,7 +3715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -3567,7 +3735,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -3584,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
@@ -3604,7 +3772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>40</v>
       </c>
@@ -3624,7 +3792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
@@ -3664,7 +3832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>40</v>
       </c>
@@ -3684,7 +3852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>40</v>
       </c>
@@ -3704,7 +3872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -3724,7 +3892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>57</v>
       </c>
@@ -3744,7 +3912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>57</v>
       </c>
@@ -3764,7 +3932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>57</v>
       </c>
@@ -3784,7 +3952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>57</v>
       </c>
@@ -3804,7 +3972,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>57</v>
       </c>
@@ -3824,7 +3992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>57</v>
       </c>
@@ -3844,7 +4012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>57</v>
       </c>
@@ -3864,7 +4032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>57</v>
       </c>
@@ -3884,7 +4052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>57</v>
       </c>
@@ -3904,7 +4072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>57</v>
       </c>
@@ -3924,7 +4092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>57</v>
       </c>
@@ -3961,15 +4129,15 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.046875" customWidth="1"/>
-    <col min="2" max="2" width="16.41015625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.56640625" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3989,7 +4157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -4009,7 +4177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -4029,7 +4197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4049,7 +4217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4069,7 +4237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4089,7 +4257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4109,7 +4277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4129,7 +4297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -4149,7 +4317,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4185,12 +4353,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.37109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4201,9 +4369,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str" cm="1">
-        <f t="array" ref="A2:A12">_xlfn.UNIQUE(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!A2:A1000, Kjøtt!A2:A1000,Fisk!A2:A1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
+        <f t="array" ref="A2:A13">_xlfn.UNIQUE(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!A2:A1000, Kjøtt!A2:A1000,Fisk!A2:A1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
         <v>Linsegryte</v>
       </c>
       <c r="B2" s="9" t="str">
@@ -4215,7 +4383,7 @@
         <v>Ris</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <v>Linse pasta</v>
       </c>
@@ -4228,22 +4396,22 @@
         <v>Pasta</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B4" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A4,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A4,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A4,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Kjøttdeig</v>
+        <v>Søtpotet</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A4,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A4,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A4,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Lefse</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Søtpotet</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
-        <v>Spaghetti og kjøttdeig</v>
+        <v>Taco</v>
       </c>
       <c r="B5" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A5,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A5,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A5,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4251,77 +4419,77 @@
       </c>
       <c r="C5" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A5,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A5,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A5,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Pasta</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Lefse</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <v>Wok med kylling</v>
+        <v>Spaghetti og kjøttdeig</v>
       </c>
       <c r="B6" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A6,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A6,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A6,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Kylling</v>
+        <v>Kjøttdeig</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A6,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A6,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A6,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Ris</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <v>Wok med biff</v>
+        <v>Wok med kylling</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A7,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A7,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A7,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Biff</v>
+        <v>Kylling</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A7,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A7,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A7,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Nudler</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Ris</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <v>Pesto kylling</v>
+        <v>Wok med biff</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A8,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A8,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A8,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Kylling</v>
+        <v>Biff</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A8,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A8,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A8,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Pasta</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Nudler</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
-        <v>Sticky kjøttdeig</v>
+        <v>Pesto kylling</v>
       </c>
       <c r="B9" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A9,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A9,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A9,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Kjøttdeig</v>
+        <v>Kylling</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A9,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A9,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A9,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Ris</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Pasta</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A10,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A10,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A10,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Kylling</v>
+        <v>Kjøttdeig</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A10,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A10,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A10,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
         <v>Ris</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <v>Paprikakylling form</v>
+        <v>Solveigs kyllinggryte</v>
       </c>
       <c r="B11" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A11,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A11,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A11,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4329,34 +4497,36 @@
       </c>
       <c r="C11" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A11,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A11,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A11,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Potet</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Ris</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
-        <v>Mango torsk</v>
+        <v>Paprikakylling form</v>
       </c>
       <c r="B12" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A12,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A12,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A12,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v>Torsk</v>
+        <v>Kylling</v>
       </c>
       <c r="C12" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A12,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A12,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A12,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v>Ris</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+        <v>Potet</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <v>Mango torsk</v>
+      </c>
       <c r="B13" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A13,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A13,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A13,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
-        <v/>
+        <v>Torsk</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A13,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A13,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A13,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Ris</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A14,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A14,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A14,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4367,7 +4537,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A15,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A15,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A15,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4378,7 +4548,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A16,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A16,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A16,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4389,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A17,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A17,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A17,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4400,7 +4570,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A18,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A18,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A18,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4411,7 +4581,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A19,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A19,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A19,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4422,7 +4592,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A20,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A20,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A20,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4433,7 +4603,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A21,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A21,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A21,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4444,7 +4614,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A22,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A22,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A22,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4455,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A23,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A23,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A23,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4466,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A24,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A24,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A24,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4477,7 +4647,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A25,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A25,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A25,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4488,7 +4658,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A26,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A26,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A26,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4499,7 +4669,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A27,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A27,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A27,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4510,7 +4680,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A28,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A28,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A28,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4521,7 +4691,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A29,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A29,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A29,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4532,7 +4702,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A30,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A30,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A30,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4543,7 +4713,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A31,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A31,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A31,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4554,7 +4724,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A32,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A32,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A32,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4565,7 +4735,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A33,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A33,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A33,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4576,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A34,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A34,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A34,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4587,7 +4757,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A35,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A35,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A35,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4598,7 +4768,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A36,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A36,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A36,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4609,7 +4779,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A37,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A37,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A37,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4620,7 +4790,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A38,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A38,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A38,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4631,7 +4801,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A39,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A39,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A39,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4642,7 +4812,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A40,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A40,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A40,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4653,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A41,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A41,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A41,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4664,7 +4834,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A42,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A42,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A42,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4675,7 +4845,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A43,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A43,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A43,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4686,7 +4856,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A44,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A44,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A44,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4697,7 +4867,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A45,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A45,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A45,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4708,7 +4878,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A46,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A46,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A46,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4719,7 +4889,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A47,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A47,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A47,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4730,7 +4900,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A48,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A48,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A48,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4741,7 +4911,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A49,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A49,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A49,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4752,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A50,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A50,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A50,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4763,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A51,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A51,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A51,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4774,7 +4944,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="9" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A52,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A52,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A52,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
@@ -4785,7 +4955,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A53,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A53,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A53,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4795,7 +4965,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A54,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A54,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A54,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4805,7 +4975,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A55,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A55,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A55,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4815,7 +4985,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A56,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A56,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A56,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4825,7 +4995,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A57,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A57,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A57,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4835,7 +5005,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A58,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A58,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A58,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4845,7 +5015,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A59,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A59,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A59,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4855,7 +5025,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A60,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A60,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A60,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4865,7 +5035,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A61,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A61,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A61,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4875,7 +5045,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A62,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A62,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A62,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4885,7 +5055,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A63,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A63,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A63,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4895,7 +5065,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A64,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A64,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A64,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4905,7 +5075,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A65,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A65,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A65,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4915,7 +5085,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A66,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A66,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A66,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4925,7 +5095,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A67,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A67,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A67,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4935,7 +5105,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A68,Vegetar!$A$2:$A$1000,Vegetar!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A68,Kjøtt!$A$2:$A$1000,Kjøtt!$B$2:$B$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A68,Fisk!$A$2:$A$1000,Fisk!$B$2:$B$1000,,0,),""))</f>
         <v/>
@@ -4945,7 +5115,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A69,Vegetar!A69:A1067,Vegetar!B69:B1067,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A69,Kjøtt!A69:A1067,Kjøtt!B69:B1067,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A69,Fisk!A69:A1067,Fisk!B69:B1067,,0,),""))</f>
         <v/>
@@ -4955,7 +5125,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A70,Vegetar!A70:A1068,Vegetar!B70:B1068,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A70,Kjøtt!A70:A1068,Kjøtt!B70:B1068,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A70,Fisk!A70:A1068,Fisk!B70:B1068,,0,),""))</f>
         <v/>
@@ -4965,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A71,Vegetar!A71:A1069,Vegetar!B71:B1069,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A71,Kjøtt!A71:A1069,Kjøtt!B71:B1069,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A71,Fisk!A71:A1069,Fisk!B71:B1069,,0,),""))</f>
         <v/>
@@ -4975,7 +5145,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A72,Vegetar!A72:A1070,Vegetar!B72:B1070,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A72,Kjøtt!A72:A1070,Kjøtt!B72:B1070,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A72,Fisk!A72:A1070,Fisk!B72:B1070,,0,),""))</f>
         <v/>
@@ -4985,7 +5155,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A73,Vegetar!A73:A1071,Vegetar!B73:B1071,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A73,Kjøtt!A73:A1071,Kjøtt!B73:B1071,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A73,Fisk!A73:A1071,Fisk!B73:B1071,,0,),""))</f>
         <v/>
@@ -4995,7 +5165,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A74,Vegetar!A74:A1072,Vegetar!B74:B1072,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A74,Kjøtt!A74:A1072,Kjøtt!B74:B1072,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A74,Fisk!A74:A1072,Fisk!B74:B1072,,0,),""))</f>
         <v/>
@@ -5005,7 +5175,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A75,Vegetar!A75:A1073,Vegetar!B75:B1073,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A75,Kjøtt!A75:A1073,Kjøtt!B75:B1073,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A75,Fisk!A75:A1073,Fisk!B75:B1073,,0,),""))</f>
         <v/>
@@ -5015,7 +5185,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A76,Vegetar!A76:A1074,Vegetar!B76:B1074,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A76,Kjøtt!A76:A1074,Kjøtt!B76:B1074,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A76,Fisk!A76:A1074,Fisk!B76:B1074,,0,),""))</f>
         <v/>
@@ -5025,7 +5195,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A77,Vegetar!A77:A1075,Vegetar!B77:B1075,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A77,Kjøtt!A77:A1075,Kjøtt!B77:B1075,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(A77,Fisk!A77:A1075,Fisk!B77:B1075,,0,),""))</f>
         <v/>
@@ -5035,25 +5205,25 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A78,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B78,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B78,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A79,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B79,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B79,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C80" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A80,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B80,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B80,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="str">
         <f>_xlfn.CONCAT(_xlfn.IFNA(_xlfn.XLOOKUP(A81,Vegetar!$A$2:$A$1000,Vegetar!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B81,Kjøtt!$A$2:$A$1000,Kjøtt!$C$2:$C$1000,,0,),""),_xlfn.IFNA(_xlfn.XLOOKUP(B81,Fisk!$A$2:$A$1000,Fisk!$C$2:$C$1000,,0,),""))</f>
         <v/>
@@ -5066,19 +5236,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C483EF1-600F-41C4-9720-37A2D0288154}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -5092,25 +5262,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A94">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!A2:A1000, Kjøtt!A2:A1000,Fisk!A2:A1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
+        <f t="array" ref="A2:A101">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!A2:A1000, Kjøtt!A2:A1000,Fisk!A2:A1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
         <v>Linsegryte</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B94">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!D2:D1000, Kjøtt!D2:D1000,Fisk!D2:D1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
+        <f t="array" ref="B2:B101">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!D2:D1000, Kjøtt!D2:D1000,Fisk!D2:D1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
         <v>Linser</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" ref="C2:C94">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!E2:E1000, Kjøtt!E2:E1000,Fisk!E2:E1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
+        <f t="array" ref="C2:C101">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!E2:E1000, Kjøtt!E2:E1000,Fisk!E2:E1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
         <v>200</v>
       </c>
       <c r="D2" t="str" cm="1">
-        <f t="array" ref="D2:D93">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!F2:F1000, Kjøtt!F2:F1000,Fisk!F2:F1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
+        <f t="array" ref="D2:D100">(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;" &amp; _xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;", TRUE, Vegetar!F2:F1000, Kjøtt!F2:F1000,Fisk!F2:F1000) &amp; "&lt;/s&gt;&lt;/t&gt;", "//s"))</f>
         <v>g</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>Linsegryte</v>
       </c>
@@ -5124,7 +5294,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Linsegryte</v>
       </c>
@@ -5138,7 +5308,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Linsegryte</v>
       </c>
@@ -5152,7 +5322,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Linsegryte</v>
       </c>
@@ -5166,7 +5336,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Linsegryte</v>
       </c>
@@ -5180,7 +5350,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5194,7 +5364,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5208,7 +5378,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5222,7 +5392,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5236,7 +5406,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5250,7 +5420,7 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Linse pasta</v>
       </c>
@@ -5264,54 +5434,54 @@
         <v>ss</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B14" t="str">
-        <v>Kjøttdeig</v>
+        <v>Søtpotet</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B15" t="str">
-        <v>Salat</v>
+        <v>Løk</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B16" t="str">
-        <v>Tomat</v>
+        <v>Gulrot</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B17" t="str">
-        <v>Mais</v>
+        <v>Kokosmelk</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5320,26 +5490,26 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B18" t="str">
-        <v>Rødløk</v>
+        <v>Curry paste</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>ts</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B19" t="str">
-        <v>Paprika</v>
+        <v>Hvitløksbrød</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5348,12 +5518,12 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <v>Taco</v>
+        <v>Søtpotetsuppe</v>
       </c>
       <c r="B20" t="str">
-        <v>Taco saus</v>
+        <v>Ingefær</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5362,40 +5532,40 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Taco</v>
       </c>
       <c r="B21" t="str">
-        <v>Taco krydder</v>
+        <v>Kjøttdeig</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D21" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>Taco</v>
       </c>
       <c r="B22" t="str">
-        <v>Taco lefser</v>
+        <v>Salat</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>Taco</v>
       </c>
       <c r="B23" t="str">
-        <v>Rømme</v>
+        <v>Tomat</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5404,12 +5574,12 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>Taco</v>
       </c>
       <c r="B24" t="str">
-        <v>Sorte bønner</v>
+        <v>Mais</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5418,474 +5588,474 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>Taco</v>
       </c>
       <c r="B25" t="str">
+        <v>Rødløk</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Paprika</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Taco saus</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Taco krydder</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Taco lefser</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Rømme</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Sorte bønner</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <v>Taco</v>
+      </c>
+      <c r="B32" t="str">
         <v>Sopp</v>
       </c>
-      <c r="C25">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D25" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Kjøttdeig</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Hakka tomat</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Hvitløk</v>
-      </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-      <c r="D28" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Løk</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B30" t="str">
-        <v>Salat</v>
-      </c>
-      <c r="C30">
-        <v>0.2</v>
-      </c>
-      <c r="D30" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B31" t="str">
-        <v>Tomat</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <v>Spaghetti og kjøttdeig</v>
-      </c>
-      <c r="B32" t="str">
-        <v>Rødløk</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="D32" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Spaghetti og kjøttdeig</v>
       </c>
       <c r="B33" t="str">
+        <v>Kjøttdeig</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Hakka tomat</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Hvitløk</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+      <c r="D35" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Løk</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Salat</v>
+      </c>
+      <c r="C37">
+        <v>0.2</v>
+      </c>
+      <c r="D37" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Tomat</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Rødløk</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <v>Spaghetti og kjøttdeig</v>
+      </c>
+      <c r="B40" t="str">
         <v>Pasta</v>
       </c>
-      <c r="C33">
+      <c r="C40">
         <v>200</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D40" t="str">
         <v>g</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B34" t="str">
-        <v>Kylling</v>
-      </c>
-      <c r="C34">
-        <v>400</v>
-      </c>
-      <c r="D34" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B35" t="str">
-        <v>Ris</v>
-      </c>
-      <c r="C35">
-        <v>1.5</v>
-      </c>
-      <c r="D35" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B36" t="str">
-        <v>Sweet chili</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B37" t="str">
-        <v>Soyasaus</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Brokkoli</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Løk</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <v>Wok med kylling</v>
-      </c>
-      <c r="B40" t="str">
-        <v>Gulrot</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Wok med kylling</v>
       </c>
       <c r="B41" t="str">
+        <v>Kylling</v>
+      </c>
+      <c r="C41">
+        <v>400</v>
+      </c>
+      <c r="D41" t="str">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ris</v>
+      </c>
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Sweet chili</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Soyasaus</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Brokkoli</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Løk</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Gulrot</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <v>Wok med kylling</v>
+      </c>
+      <c r="B48" t="str">
         <v>Wok mix</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Biff</v>
-      </c>
-      <c r="C42">
-        <v>400</v>
-      </c>
-      <c r="D42" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Ingefær</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Hvitløk</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Appelsin juice</v>
-      </c>
-      <c r="C45">
-        <v>1.5</v>
-      </c>
-      <c r="D45" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Brokkoli</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Paprika</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <v>Wok med biff</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Gulrot</v>
-      </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>Wok med biff</v>
       </c>
       <c r="B49" t="str">
-        <v>Oyster saus</v>
+        <v>Biff</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D49" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>Wok med biff</v>
       </c>
       <c r="B50" t="str">
+        <v>Ingefær</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Hvitløk</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Appelsin juice</v>
+      </c>
+      <c r="C52">
+        <v>1.5</v>
+      </c>
+      <c r="D52" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Brokkoli</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Paprika</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Gulrot</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Oyster saus</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <v>Wok med biff</v>
+      </c>
+      <c r="B57" t="str">
         <v>Ris nudler</v>
       </c>
-      <c r="C50">
+      <c r="C57">
         <v>200</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D57" t="str">
         <v>g</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <v>Pesto kylling</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B58" t="str">
         <v>Kylling</v>
-      </c>
-      <c r="C51">
-        <v>400</v>
-      </c>
-      <c r="D51" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Parmesan</v>
-      </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-      <c r="D52" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Basilikum</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Pinjekjerner</v>
-      </c>
-      <c r="C54">
-        <v>30</v>
-      </c>
-      <c r="D54" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Bacon</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Cherry tomater</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-      <c r="D56" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
-        <v>Pesto kylling</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Hvitløk</v>
-      </c>
-      <c r="C57">
-        <v>0.2</v>
-      </c>
-      <c r="D57" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <v>Sticky kjøttdeig</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Kjøttdeig</v>
       </c>
       <c r="C58">
         <v>400</v>
@@ -5894,166 +6064,166 @@
         <v>g</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <v>Sticky kjøttdeig</v>
+        <v>Pesto kylling</v>
       </c>
       <c r="B59" t="str">
-        <v>Løk</v>
+        <v>Parmesan</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D59" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <v>Sticky kjøttdeig</v>
+        <v>Pesto kylling</v>
       </c>
       <c r="B60" t="str">
+        <v>Basilikum</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <v>Pesto kylling</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Pinjekjerner</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61" t="str">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <v>Pesto kylling</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Bacon</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <v>Pesto kylling</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Cherry tomater</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <v>Pesto kylling</v>
+      </c>
+      <c r="B64" t="str">
         <v>Hvitløk</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>0.2</v>
       </c>
-      <c r="D60" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <v>Sticky kjøttdeig</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Ingefær</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <v>Sticky kjøttdeig</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Brokkoli</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
-        <v>Sticky kjøttdeig</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Gulrot</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
-        <v>Sticky kjøttdeig</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Vårløk</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
       <c r="D64" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <v>Sticky kjøttdeig</v>
       </c>
       <c r="B65" t="str">
-        <v>Ris</v>
+        <v>Kjøttdeig</v>
       </c>
       <c r="C65">
-        <v>1.5</v>
+        <v>400</v>
       </c>
       <c r="D65" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B66" t="str">
-        <v>Kylling</v>
+        <v>Løk</v>
       </c>
       <c r="C66">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="D66" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B67" t="str">
-        <v>Buljong</v>
+        <v>Hvitløk</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D67" t="str">
-        <v>ss</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B68" t="str">
-        <v>Sambal oelek</v>
+        <v>Ingefær</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="str">
-        <v>ss</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B69" t="str">
-        <v>Soyasaus</v>
+        <v>Brokkoli</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="str">
-        <v>ss</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B70" t="str">
-        <v>Mango chutney</v>
+        <v>Gulrot</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6062,336 +6232,434 @@
         <v>stk</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B71" t="str">
-        <v>Purreløk</v>
+        <v>Vårløk</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <v>Solveigs kyllinggryte</v>
+        <v>Sticky kjøttdeig</v>
       </c>
       <c r="B72" t="str">
-        <v>Spisspaprika</v>
+        <v>Ris</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D72" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <v>Solveigs kyllinggryte</v>
       </c>
       <c r="B73" t="str">
-        <v>Creme fraiche</v>
+        <v>Kylling</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>400</v>
       </c>
       <c r="D73" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <v>Solveigs kyllinggryte</v>
       </c>
       <c r="B74" t="str">
+        <v>Buljong</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="str">
+        <v>ss</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Sambal oelek</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="str">
+        <v>ss</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Soyasaus</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="str">
+        <v>ss</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Mango chutney</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Purreløk</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Spisspaprika</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Creme fraiche</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <v>Solveigs kyllinggryte</v>
+      </c>
+      <c r="B81" t="str">
         <v>Fløte</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B75" t="str">
-        <v>Bacon</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B76" t="str">
-        <v>Kylling</v>
-      </c>
-      <c r="C76">
-        <v>400</v>
-      </c>
-      <c r="D76" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B77" t="str">
-        <v>Rødløk</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B78" t="str">
-        <v>Paprika</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B79" t="str">
-        <v>Hvitløk</v>
-      </c>
-      <c r="C79">
-        <v>0.2</v>
-      </c>
-      <c r="D79" t="str">
-        <v>ss</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B80" t="str">
-        <v>Tomatpure</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <v>Paprikakylling form</v>
-      </c>
-      <c r="B81" t="str">
-        <v>Hakka tomat</v>
-      </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <v>Paprikakylling form</v>
       </c>
       <c r="B82" t="str">
-        <v>Creme fraiche</v>
+        <v>Bacon</v>
       </c>
       <c r="C82">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D82" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <v>Paprikakylling form</v>
       </c>
       <c r="B83" t="str">
-        <v>Fløte</v>
+        <v>Kylling</v>
       </c>
       <c r="C83">
-        <v>1.5</v>
+        <v>400</v>
       </c>
       <c r="D83" t="str">
         <v>stk</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <v>Paprikakylling form</v>
       </c>
       <c r="B84" t="str">
-        <v>Buljong</v>
+        <v>Rødløk</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="str">
-        <v>ss</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <v>Paprikakylling form</v>
       </c>
       <c r="B85" t="str">
+        <v>Paprika</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Hvitløk</v>
+      </c>
+      <c r="C86">
+        <v>0.2</v>
+      </c>
+      <c r="D86" t="str">
+        <v>ss</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Tomatpure</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Hakka tomat</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Creme fraiche</v>
+      </c>
+      <c r="C89">
+        <v>1.5</v>
+      </c>
+      <c r="D89" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Fløte</v>
+      </c>
+      <c r="C90">
+        <v>1.5</v>
+      </c>
+      <c r="D90" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Buljong</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>ss</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <v>Paprikakylling form</v>
+      </c>
+      <c r="B92" t="str">
         <v>Sriracha</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B86" t="str">
-        <v>Mango</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="str">
-        <v>g</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B87" t="str">
-        <v>Fisk</v>
-      </c>
-      <c r="C87">
-        <v>400</v>
-      </c>
-      <c r="D87" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B88" t="str">
-        <v>Ris</v>
-      </c>
-      <c r="C88">
-        <v>1.5</v>
-      </c>
-      <c r="D88" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B89" t="str">
-        <v>Paprika</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B90" t="str">
-        <v>Koriander</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B91" t="str">
-        <v>Lime</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="str">
-        <v>stk</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="str">
-        <v>Mango torsk</v>
-      </c>
-      <c r="B92" t="str">
-        <v>Kokosmelk</v>
-      </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <v>Mango torsk</v>
       </c>
       <c r="B93" t="str">
-        <v>Sweet chili</v>
+        <v>Mango</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="str">
-        <v>dl</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>g</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <v>Mango torsk</v>
       </c>
       <c r="B94" t="str">
+        <v>Fisk</v>
+      </c>
+      <c r="C94">
+        <v>400</v>
+      </c>
+      <c r="D94" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Ris</v>
+      </c>
+      <c r="C95">
+        <v>1.5</v>
+      </c>
+      <c r="D95" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Paprika</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Koriander</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Lime</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
+        <v>stk</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Kokosmelk</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Sweet chili</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <v>dl</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <v>Mango torsk</v>
+      </c>
+      <c r="B101" t="str">
         <v>Soyasaus</v>
       </c>
-      <c r="C94">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
